--- a/data/trans_bre/P14B23-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P14B23-Provincia-trans_bre.xlsx
@@ -638,22 +638,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>2.342847098647091</v>
+        <v>2.561601858013778</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>3.5554364437457</v>
+        <v>4.003547986825756</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1.02979677262466</v>
+        <v>1.079918980856193</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>0.4510728965683939</v>
+        <v>0.401963804901052</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.7343313510298423</v>
+        <v>0.7307097896240835</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3565643852007614</v>
+        <v>0.2942946936118213</v>
       </c>
     </row>
     <row r="6">
@@ -664,22 +664,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>10.80803797516117</v>
+        <v>10.64769338301794</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>12.42196181497429</v>
+        <v>12.7904979292081</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5.023740611862194</v>
+        <v>5.03562807795797</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>6.823187347085228</v>
+        <v>6.429265266200286</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>8.58726247733831</v>
+        <v>10.60405956061562</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>8.735203696472166</v>
+        <v>8.645569304769269</v>
       </c>
     </row>
     <row r="7">
@@ -720,22 +720,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>3.779384805529026</v>
+        <v>3.618185472807959</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>2.823751758712594</v>
+        <v>2.85564255794936</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>3.848312718210828</v>
+        <v>3.676053616226302</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.6710580523121171</v>
+        <v>0.6222834494452389</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.7198023320659898</v>
+        <v>0.6740309702705884</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5895234222628777</v>
+        <v>0.6025515547631398</v>
       </c>
     </row>
     <row r="9">
@@ -746,22 +746,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>10.70210720336095</v>
+        <v>10.50773396269736</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>8.50136546991628</v>
+        <v>8.646865899596893</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>9.462619492443078</v>
+        <v>9.561119704159271</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>5.693949267657774</v>
+        <v>5.67397399336692</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>5.103452401417334</v>
+        <v>5.041485035928526</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>3.648489527564259</v>
+        <v>3.507862743477609</v>
       </c>
     </row>
     <row r="10">
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1066384601890912</v>
+        <v>0.5398960392115733</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>1.583804071017896</v>
+        <v>1.949544139128331</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-2.357626437928249</v>
+        <v>-2.304996841748087</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>-0.06553235050452783</v>
+        <v>0.06193750767549629</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.5677796088444147</v>
+        <v>0.7989392413198068</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.3146243259284217</v>
+        <v>-0.3140943264780919</v>
       </c>
     </row>
     <row r="12">
@@ -828,22 +828,20 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>6.891647259070834</v>
+        <v>7.004416442950474</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>7.32920792672766</v>
+        <v>7.22195614580354</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.891391383760805</v>
+        <v>3.88909040101648</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>3.963885052736956</v>
-      </c>
-      <c r="G12" s="6" t="n">
-        <v>22.87422567436786</v>
-      </c>
+        <v>3.859462407565462</v>
+      </c>
+      <c r="G12" s="6" t="inlineStr"/>
       <c r="H12" s="6" t="n">
-        <v>1.04577973959036</v>
+        <v>0.9790360959794079</v>
       </c>
     </row>
     <row r="13">
@@ -864,7 +862,7 @@
         <v>3.257518295677655</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>3.899516115022579</v>
+        <v>3.899516115022581</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>14.10300323035304</v>
@@ -873,7 +871,7 @@
         <v>2.414491636860479</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.8342501273573889</v>
+        <v>0.8342501273573892</v>
       </c>
     </row>
     <row r="14">
@@ -884,22 +882,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>5.34435861850607</v>
+        <v>5.406586020662374</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>1.137167010552312</v>
+        <v>0.8407884980428879</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.01363953807899475</v>
+        <v>0.2161217968897854</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>2.482439075770334</v>
+        <v>3.157870100214868</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.2510717412632761</v>
+        <v>0.06916005375813795</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.04333451539109387</v>
+        <v>-0.02062511811016627</v>
       </c>
     </row>
     <row r="15">
@@ -910,20 +908,20 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>11.12035306608945</v>
+        <v>11.62418298436677</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>5.913162901107049</v>
+        <v>5.671142003377065</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>7.154362684153448</v>
+        <v>7.056914649570817</v>
       </c>
       <c r="F15" s="6" t="inlineStr"/>
       <c r="G15" s="6" t="n">
-        <v>9.495148247932319</v>
+        <v>10.0861191551068</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>2.412796348798485</v>
+        <v>2.265701824188239</v>
       </c>
     </row>
     <row r="16">
@@ -944,7 +942,7 @@
         <v>3.20887777188317</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3.141319765765414</v>
+        <v>3.141319765765416</v>
       </c>
       <c r="F16" s="6" t="n">
         <v>3.767424895853362</v>
@@ -953,7 +951,7 @@
         <v>0.6358395637030652</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>2.703595734697542</v>
+        <v>2.703595734697543</v>
       </c>
     </row>
     <row r="17">
@@ -964,22 +962,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>7.362343610636824</v>
+        <v>7.111151078297365</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.298787992116117</v>
+        <v>-1.411039187205145</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1.031507842021129</v>
+        <v>1.088899535956427</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>1.063095774146531</v>
+        <v>1.268732324028684</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.2305468538660371</v>
+        <v>-0.2600148675581668</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2731168069927842</v>
+        <v>0.2938226499768797</v>
       </c>
     </row>
     <row r="18">
@@ -990,22 +988,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>18.65903987632703</v>
+        <v>18.40533930045694</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>7.767004734723723</v>
+        <v>7.99453582112771</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>5.324524369529865</v>
+        <v>5.299280262864004</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>10.00948603074119</v>
+        <v>10.73204604649306</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>2.579580168088437</v>
+        <v>2.650522806348131</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>13.32012703890998</v>
+        <v>15.69129045363111</v>
       </c>
     </row>
     <row r="19">
@@ -1026,7 +1024,7 @@
         <v>8.870445189482457</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1.69369570587631</v>
+        <v>1.693695705876307</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>1.598408067506717</v>
@@ -1035,7 +1033,7 @@
         <v>9.118337501831514</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3169795366170015</v>
+        <v>0.3169795366170009</v>
       </c>
     </row>
     <row r="20">
@@ -1046,22 +1044,22 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>1.1229416207288</v>
+        <v>1.526302817699567</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>5.477604873496351</v>
+        <v>5.386090161256645</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-1.558892444897959</v>
+        <v>-1.712864532628045</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.114284048748276</v>
+        <v>0.2109272323867845</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>2.141297276511108</v>
+        <v>1.905779421463766</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.2455762982018837</v>
+        <v>-0.2756834674789731</v>
       </c>
     </row>
     <row r="21">
@@ -1072,22 +1070,22 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>9.133444655995007</v>
+        <v>9.436814505418308</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>13.10543788822132</v>
+        <v>13.17714136519045</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>4.911136232590446</v>
+        <v>4.783013394790308</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>4.518223965963147</v>
+        <v>5.283349110343313</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>37.39336711691011</v>
+        <v>37.80958881170554</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.244320853448964</v>
+        <v>1.209273229813659</v>
       </c>
     </row>
     <row r="22">
@@ -1108,7 +1106,7 @@
         <v>3.07682025574025</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>5.503280773517413</v>
+        <v>5.503280773517412</v>
       </c>
       <c r="F22" s="6" t="n">
         <v>1.28196926696742</v>
@@ -1128,22 +1126,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>1.058337722802886</v>
+        <v>1.162072922847295</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>1.222825449163316</v>
+        <v>1.43822725292899</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2.716661727828928</v>
+        <v>2.703630343850326</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>0.2211409030999207</v>
+        <v>0.2908908866338709</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.4895162633772406</v>
+        <v>0.5748623955757969</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.3976619157723377</v>
+        <v>0.3836372705104707</v>
       </c>
     </row>
     <row r="24">
@@ -1154,22 +1152,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>5.428687648401962</v>
+        <v>5.790766984169106</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>5.152529404087224</v>
+        <v>5.081521994073062</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>8.286433030830866</v>
+        <v>8.027853686646562</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>3.108710523910071</v>
+        <v>3.557267318783475</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>11.23032426524615</v>
+        <v>9.468318168800902</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>2.268204743577045</v>
+        <v>2.155437532264323</v>
       </c>
     </row>
     <row r="25">
@@ -1210,22 +1208,22 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>2.254726460497662</v>
+        <v>2.258361851649434</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>2.359862598102313</v>
+        <v>2.366357609153706</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2.413718934023946</v>
+        <v>2.342077530408375</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.7443574878634373</v>
+        <v>0.6774809939753667</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.6593687051595071</v>
+        <v>0.7019585478540956</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.590461087533265</v>
+        <v>0.6163562503068488</v>
       </c>
     </row>
     <row r="27">
@@ -1236,22 +1234,22 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>6.309529774840285</v>
+        <v>6.335158608247801</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>6.535281070740558</v>
+        <v>6.24521616674147</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>6.039545244403204</v>
+        <v>6.150220584287174</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>5.282497997194105</v>
+        <v>5.351930534377889</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>4.000219671020439</v>
+        <v>4.004859616065264</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>2.999004179293122</v>
+        <v>3.585282107481585</v>
       </c>
     </row>
     <row r="28">
@@ -1292,22 +1290,22 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>4.471922951789979</v>
+        <v>4.342358732881772</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>3.769161659766806</v>
+        <v>3.713551499470915</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3.243373132751834</v>
+        <v>3.091048000640029</v>
       </c>
       <c r="F29" s="6" t="n">
-        <v>1.504247634276505</v>
+        <v>1.475586430618031</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>1.575791655180129</v>
+        <v>1.547651009631086</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.735016877091253</v>
+        <v>0.701644403120059</v>
       </c>
     </row>
     <row r="30">
@@ -1318,22 +1316,22 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>6.712350857960255</v>
+        <v>6.586241186278831</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>5.777872674229664</v>
+        <v>5.735678050789888</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>5.152665753454074</v>
+        <v>5.247479068541011</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>3.212383743676012</v>
+        <v>3.11714383168095</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>3.530876085565824</v>
+        <v>3.473399771265586</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>1.544381687045321</v>
+        <v>1.599989169076884</v>
       </c>
     </row>
     <row r="31">
